--- a/module6/tailieu/7-1/[C0721G2]_DailyReport_KhaiPN.xlsx
+++ b/module6/tailieu/7-1/[C0721G2]_DailyReport_KhaiPN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khaip\Desktop\hoc\khai\C0721G2-Phan-Ng-c-Kh-i\module6\tailieu\6-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khaip\Desktop\hoc\khai\C0721G2-Phan-Ng-c-Kh-i\module6\tailieu\7-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976478DA-22F3-40CD-847E-A414B8CB4903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06902BCD-F31D-41E2-885F-813ACE478AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,7 @@
     <sheet name="04-1-2020" sheetId="15" state="hidden" r:id="rId13"/>
     <sheet name="05-1-2020" sheetId="14" state="hidden" r:id="rId14"/>
     <sheet name="dd-mm-yyyy" sheetId="24" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="25" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="152">
   <si>
     <t>No</t>
   </si>
@@ -692,35 +693,92 @@
     <t>demo</t>
   </si>
   <si>
-    <t>[Study Detail Design] 5.1.4. Header</t>
-  </si>
-  <si>
-    <t>[Study Detail Design] 5.1.5. Footer</t>
-  </si>
-  <si>
     <t>[Study Detail Design] 5.6.1. Xem danh sách bất động sản</t>
   </si>
   <si>
-    <t>[Create Detail Design] 5.1.4. Header</t>
-  </si>
-  <si>
-    <t>[Create Detail Design] 5.1.5. Footer</t>
-  </si>
-  <si>
-    <t>[Create Detail Design] 5.6.1. Xem danh sách bất động sản</t>
-  </si>
-  <si>
-    <t>Chưa làm xong class diagram, sequence diagram và pseudo code</t>
-  </si>
-  <si>
     <t>5h</t>
+  </si>
+  <si>
+    <t> Chưa làm xong phần filter, search </t>
+  </si>
+  <si>
+    <t>Đang cố gắng hoàn thiện tính năng search nhiều trường</t>
+  </si>
+  <si>
+    <t>N/A </t>
+  </si>
+  <si>
+    <t> In Progress</t>
+  </si>
+  <si>
+    <t> Chưa làm xong phần test cho filter, search</t>
+  </si>
+  <si>
+    <t> 5h</t>
+  </si>
+  <si>
+    <t>Đang cố gắng hoàn thiện </t>
+  </si>
+  <si>
+    <t> N/A </t>
+  </si>
+  <si>
+    <t>[Create JUnit 5] 5.6.1. Xem danh sách bất động sản</t>
+  </si>
+  <si>
+    <t>  [Codeing Angular+all] 5.1.4. Header  </t>
+  </si>
+  <si>
+    <t>  [Codeing Angular+all] 5.1.5. Footer  </t>
+  </si>
+  <si>
+    <t>  [Codeing Angular+all] 5.6.1. Xem danh sách bất động sản</t>
+  </si>
+  <si>
+    <t>  12/01/2022</t>
+  </si>
+  <si>
+    <t>   12/01/2022   </t>
+  </si>
+  <si>
+    <t>In Progress   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[Create JUnit 5] 5.6.1. Xem danh sách bất động sản</t>
+  </si>
+  <si>
+    <t>[Codeing Angular+all] 5.1.4. Header</t>
+  </si>
+  <si>
+    <t>[Codeing Angular+all] 5.1.5. Footer</t>
+  </si>
+  <si>
+    <t>issue 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đang gặp vấn đề về clone git của team, chưa chạy được angular project </t>
+  </si>
+  <si>
+    <t>issue 2</t>
+  </si>
+  <si>
+    <t>Phần list chưa xuất được data từ backend lên front end</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đợi anh Tài update lại file git project front end, trong thời gian đó hoàn thiện phần showlist real estate </t>
+  </si>
+  <si>
+    <t>tiếp tục hoàn thiện vào tối nay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,6 +888,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -851,7 +940,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -913,6 +1002,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -920,7 +1055,7 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1177,6 +1312,70 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3124,7 +3323,7 @@
   <dimension ref="A4:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+      <selection activeCell="A4" sqref="A4:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3217,34 +3416,50 @@
       </c>
       <c r="I10" s="73"/>
     </row>
-    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="90"/>
+        <v>149</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>150</v>
+      </c>
       <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
+      <c r="F11" s="88" t="s">
+        <v>119</v>
+      </c>
       <c r="G11" s="89"/>
-      <c r="H11" s="74"/>
+      <c r="H11" s="76" t="s">
+        <v>114</v>
+      </c>
       <c r="I11" s="73"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="61">
         <v>2</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="90"/>
+      <c r="B12" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>151</v>
+      </c>
       <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
+      <c r="F12" s="88" t="s">
+        <v>119</v>
+      </c>
       <c r="G12" s="89"/>
-      <c r="H12" s="74"/>
+      <c r="H12" s="76" t="s">
+        <v>114</v>
+      </c>
       <c r="I12" s="73"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3293,18 +3508,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C17" s="73">
-        <v>44348</v>
+        <v>44501</v>
       </c>
       <c r="D17" s="73">
-        <v>44348</v>
+        <v>44531</v>
       </c>
       <c r="E17" s="76" t="s">
         <v>112</v>
@@ -3316,46 +3531,54 @@
         <v>2</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C18" s="73">
-        <v>44348</v>
-      </c>
-      <c r="D18" s="73">
-        <v>44348</v>
-      </c>
+        <v>44531</v>
+      </c>
+      <c r="D18" s="73"/>
       <c r="E18" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="73"/>
+        <v>114</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="60">
         <v>3</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C19" s="73">
-        <v>44348</v>
-      </c>
-      <c r="D19" s="73">
-        <v>44348</v>
-      </c>
+        <v>44531</v>
+      </c>
+      <c r="D19" s="73"/>
       <c r="E19" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="73"/>
+      <c r="F19" s="73" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="59">
         <v>4</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="73"/>
+      <c r="B20" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="73">
+        <v>44531</v>
+      </c>
       <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
+      <c r="E20" s="116" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="73" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
@@ -3389,36 +3612,24 @@
       <c r="A24" s="59">
         <v>1</v>
       </c>
-      <c r="B24" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="73">
-        <v>44378</v>
-      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="73"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="59">
         <v>2</v>
       </c>
-      <c r="B25" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="73">
-        <v>44378</v>
-      </c>
+      <c r="B25" s="62"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="73"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="59">
         <v>3</v>
       </c>
-      <c r="B26" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="73">
-        <v>44378</v>
-      </c>
+      <c r="B26" s="62"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="73"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3431,22 +3642,426 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14" xr:uid="{1DDD7E7C-342A-4BC7-859C-E14A4ADBCDD7}">
       <formula1>"Not yet started, In progress, Resolved"</formula1>
     </dataValidation>
   </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4BF5F8-2B22-4C93-A5E2-1D27DB8590E5}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="109"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="111"/>
+      <c r="F6" s="112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="111"/>
+      <c r="H6" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="99">
+        <v>1</v>
+      </c>
+      <c r="B7" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="114"/>
+      <c r="F7" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="114"/>
+      <c r="H7" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="101"/>
+    </row>
+    <row r="8" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="99">
+        <v>2</v>
+      </c>
+      <c r="B8" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="114"/>
+      <c r="F8" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="114"/>
+      <c r="H8" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="101"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="99">
+        <v>3</v>
+      </c>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="102"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+    </row>
+    <row r="13" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+      <c r="A13" s="99">
+        <v>1</v>
+      </c>
+      <c r="B13" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="106">
+        <v>44866</v>
+      </c>
+      <c r="D13" s="106">
+        <v>44866</v>
+      </c>
+      <c r="E13" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="101"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+    </row>
+    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="99">
+        <v>2</v>
+      </c>
+      <c r="B14" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="106">
+        <v>44896</v>
+      </c>
+      <c r="D14" s="106">
+        <v>44896</v>
+      </c>
+      <c r="E14" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="101"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="99">
+        <v>3</v>
+      </c>
+      <c r="B15" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="106">
+        <v>44896</v>
+      </c>
+      <c r="D15" s="106">
+        <v>44896</v>
+      </c>
+      <c r="E15" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="101"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="99">
+        <v>4</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="101"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="102"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+    </row>
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="109" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="109"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="99">
+        <v>1</v>
+      </c>
+      <c r="B20" s="106">
+        <v>44896</v>
+      </c>
+      <c r="C20" s="101"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="99">
+        <v>2</v>
+      </c>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="99">
+        <v>3</v>
+      </c>
+      <c r="B22" s="106">
+        <v>44896</v>
+      </c>
+      <c r="C22" s="101"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="99">
+        <v>4</v>
+      </c>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
